--- a/Моделирование систем_/Отчеты/MS2/GeneratorTest.xlsx
+++ b/Моделирование систем_/Отчеты/MS2/GeneratorTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Технолог-Учеба\labwork_2021\Моделирование систем_\Отчеты\prj\RandomNumberGeneratorTest\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Технолог-Учеба\labwork_2021\Моделирование систем_\Отчеты\MS2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -76,6 +76,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="X1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Курбатова Софья Андреевна:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ функцией распределения (вероятностей) случайной величины {\displaystyle X}X называют функцию {\displaystyle F(x)}F(x),</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L23" authorId="0" shapeId="0">
       <text>
         <r>
@@ -128,12 +152,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="L24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Курбатова Софья Андреевна:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+количество попавших в интервал на общее количество всех чисел</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Нормальная величина 1</t>
   </si>
@@ -267,7 +315,7 @@
     <t>с вероятностью 0,9</t>
   </si>
   <si>
-    <t>p(λ) = 0,001</t>
+    <t>p(λ) = 1</t>
   </si>
 </sst>
 </file>
@@ -278,7 +326,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +509,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -831,11 +892,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1125,11 +1186,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="510346736"/>
-        <c:axId val="510342424"/>
+        <c:axId val="188701088"/>
+        <c:axId val="188708144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510346736"/>
+        <c:axId val="188701088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1233,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510342424"/>
+        <c:crossAx val="188708144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1180,7 +1241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510342424"/>
+        <c:axId val="188708144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +1292,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510346736"/>
+        <c:crossAx val="188701088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1511,11 +1572,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="510343600"/>
-        <c:axId val="510345168"/>
+        <c:axId val="188703048"/>
+        <c:axId val="188705792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510343600"/>
+        <c:axId val="188703048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1558,7 +1619,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510345168"/>
+        <c:crossAx val="188705792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1566,7 +1627,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510345168"/>
+        <c:axId val="188705792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1678,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510343600"/>
+        <c:crossAx val="188703048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1787,7 +1848,7 @@
             <c:numRef>
               <c:f>GeneratorTest!$M$24:$M$44</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1.4655141490859779E-4</c:v>
@@ -1865,8 +1926,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="565753080"/>
-        <c:axId val="565752688"/>
+        <c:axId val="246150968"/>
+        <c:axId val="246149400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2053,11 +2114,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="514003896"/>
-        <c:axId val="514002328"/>
+        <c:axId val="186243880"/>
+        <c:axId val="246151360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="514003896"/>
+        <c:axId val="186243880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2161,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514002328"/>
+        <c:crossAx val="246151360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2108,7 +2169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="514002328"/>
+        <c:axId val="246151360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2159,18 +2220,18 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514003896"/>
+        <c:crossAx val="186243880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="565752688"/>
+        <c:axId val="246149400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2201,12 +2262,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="565753080"/>
+        <c:crossAx val="246150968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="565753080"/>
+        <c:axId val="246150968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2277,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565752688"/>
+        <c:crossAx val="246149400"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2230,6 +2292,427 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GeneratorTest!$V$2:$V$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.0336953288113504E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.360255649381901E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6317068869632167E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4396128912257887E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4753698252296749E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10926996240000399</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19477643650961701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31191228553429012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.452064986551663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59853056854448128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.73221861185213732</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83879759761004746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9130089832220788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95814114361177272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98211367060238319</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99323477577367825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.9977406776931379</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99933511459669799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99982785245408312</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99996083595615326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ш</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GeneratorTest!$X$2:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.98049999999999993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99149999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99749999999999994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99899999999999989</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99899999999999989</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="475061976"/>
+        <c:axId val="475062760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="475061976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475062760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="475062760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475061976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2348,6 +2831,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3909,6 +4432,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3996,6 +5035,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4267,10 +5336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB2001"/>
+  <dimension ref="A1:AC2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4285,11 +5354,11 @@
     <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="23.42578125" customWidth="1"/>
     <col min="22" max="22" width="11.28515625" customWidth="1"/>
-    <col min="23" max="23" width="16.5703125" customWidth="1"/>
-    <col min="24" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="16.5703125" customWidth="1"/>
+    <col min="25" max="26" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -4299,31 +5368,31 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -4346,19 +5415,22 @@
         <v>17</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9.35244340345462</v>
       </c>
@@ -4417,7 +5489,7 @@
         <f>_xlfn.STDEV.S(B2:B2001)</f>
         <v>1.5533316802464623</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="10" t="s">
         <v>29</v>
       </c>
       <c r="U2" s="2" t="s">
@@ -4431,20 +5503,24 @@
         <f>L24</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="X2" s="2">
-        <f>ABS(V2-W2)</f>
+      <c r="X2" s="6">
+        <f>W2</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>ABS(V2-X2)</f>
         <v>5.3369532881135037E-4</v>
       </c>
-      <c r="Y2" s="2">
-        <f>MAX(X2:X22)</f>
-        <v>0.99982785245408312</v>
-      </c>
       <c r="Z2" s="2">
-        <f>SQRT(I24) * Y2</f>
-        <v>2.1960845484231237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <f>MAX(Y2:Y22)</f>
+        <v>1.229759761004745E-2</v>
+      </c>
+      <c r="AA2" s="2">
+        <f>SQRT(I24) * Z2</f>
+        <v>2.7011214008354118E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11.106675091992001</v>
       </c>
@@ -4484,21 +5560,25 @@
         <f>_xlfn.STDEV.S(C2:C2002)</f>
         <v>3.0000150035907893</v>
       </c>
-      <c r="T3" s="8"/>
+      <c r="T3" s="10"/>
       <c r="V3" s="5">
-        <f t="shared" ref="V3:V22" si="3">_xlfn.NORM.DIST(I26, $O$2, $P$2, TRUE)</f>
+        <f t="shared" ref="V3:V20" si="3">_xlfn.NORM.DIST(I26, $O$2, $P$2, TRUE)</f>
         <v>3.360255649381901E-3</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W22" si="4">L25</f>
+        <f t="shared" ref="W3:W21" si="4">L25</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="X3" s="2">
-        <f t="shared" ref="X3:X22" si="5">ABS(V3-W3)</f>
-        <v>8.6025564938190099E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="6">
+        <f>W3+W2</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" ref="Y3:Y21" si="5">ABS(V3-X3)</f>
+        <v>3.6025564938190098E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12.9853116376836</v>
       </c>
@@ -4540,7 +5620,7 @@
         <f>_xlfn.STDEV.S(A2:A2001)</f>
         <v>10.504039024550956</v>
       </c>
-      <c r="T4" s="8"/>
+      <c r="T4" s="10"/>
       <c r="V4" s="5">
         <f t="shared" si="3"/>
         <v>9.6317068869632167E-3</v>
@@ -4549,12 +5629,16 @@
         <f t="shared" si="4"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="6">
+        <f>X3+W4</f>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="Y4" s="2">
         <f t="shared" si="5"/>
-        <v>1.3170688696321695E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.868293113036784E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8.4397385862954799</v>
       </c>
@@ -4580,7 +5664,7 @@
         <f t="shared" si="2"/>
         <v>3.3706825428977495E-2</v>
       </c>
-      <c r="T5" s="8"/>
+      <c r="T5" s="10"/>
       <c r="V5" s="5">
         <f t="shared" si="3"/>
         <v>2.4396128912257887E-2</v>
@@ -4589,12 +5673,16 @@
         <f t="shared" si="4"/>
         <v>0.02</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="6">
+        <f t="shared" ref="X5:X21" si="7">X4+W5</f>
+        <v>3.2500000000000001E-2</v>
+      </c>
+      <c r="Y5" s="2">
         <f t="shared" si="5"/>
-        <v>4.3961289122578864E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8.1038710877421143E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3.5788012934587901</v>
       </c>
@@ -4620,7 +5708,7 @@
         <f t="shared" si="2"/>
         <v>2.1543057991563874E-2</v>
       </c>
-      <c r="T6" s="8"/>
+      <c r="T6" s="10"/>
       <c r="V6" s="5">
         <f t="shared" si="3"/>
         <v>5.4753698252296749E-2</v>
@@ -4629,12 +5717,16 @@
         <f t="shared" si="4"/>
         <v>3.1E-2</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X6" s="6">
+        <f t="shared" si="7"/>
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="Y6" s="2">
         <f t="shared" si="5"/>
-        <v>2.375369825229675E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8.7463017477032515E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10.7639351601422</v>
       </c>
@@ -4660,7 +5752,7 @@
         <f t="shared" si="2"/>
         <v>1.3775833001408192E-2</v>
       </c>
-      <c r="T7" s="8"/>
+      <c r="T7" s="10"/>
       <c r="V7" s="5">
         <f t="shared" si="3"/>
         <v>0.10926996240000399</v>
@@ -4669,12 +5761,16 @@
         <f t="shared" si="4"/>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="X7" s="2">
+      <c r="X7" s="6">
+        <f t="shared" si="7"/>
+        <v>0.1195</v>
+      </c>
+      <c r="Y7" s="2">
         <f t="shared" si="5"/>
-        <v>5.3269962400003985E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.0230037599996009E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.43624912251899</v>
       </c>
@@ -4700,7 +5796,7 @@
         <f t="shared" si="2"/>
         <v>8.6465334796072685E-3</v>
       </c>
-      <c r="T8" s="8"/>
+      <c r="T8" s="10"/>
       <c r="V8" s="5">
         <f t="shared" si="3"/>
         <v>0.19477643650961701</v>
@@ -4709,12 +5805,16 @@
         <f t="shared" si="4"/>
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="X8" s="2">
+      <c r="X8" s="6">
+        <f t="shared" si="7"/>
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="Y8" s="2">
         <f t="shared" si="5"/>
-        <v>0.11127643650961701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8.2235634903830013E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.1783848206755803</v>
       </c>
@@ -4740,7 +5840,7 @@
         <f t="shared" si="2"/>
         <v>7.474122160338487E-3</v>
       </c>
-      <c r="T9" s="8"/>
+      <c r="T9" s="10"/>
       <c r="V9" s="5">
         <f t="shared" si="3"/>
         <v>0.31191228553429012</v>
@@ -4749,12 +5849,16 @@
         <f t="shared" si="4"/>
         <v>0.11749999999999999</v>
       </c>
-      <c r="X9" s="2">
+      <c r="X9" s="6">
+        <f t="shared" si="7"/>
+        <v>0.32050000000000001</v>
+      </c>
+      <c r="Y9" s="2">
         <f t="shared" si="5"/>
-        <v>0.19441228553429013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8.5877144657098836E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.97246753048404699</v>
       </c>
@@ -4780,7 +5884,7 @@
         <f t="shared" si="2"/>
         <v>6.1551594261611076E-3</v>
       </c>
-      <c r="T10" s="8"/>
+      <c r="T10" s="10"/>
       <c r="V10" s="5">
         <f t="shared" si="3"/>
         <v>0.452064986551663</v>
@@ -4789,12 +5893,16 @@
         <f t="shared" si="4"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="X10" s="2">
+      <c r="X10" s="6">
+        <f t="shared" si="7"/>
+        <v>0.45550000000000002</v>
+      </c>
+      <c r="Y10" s="2">
         <f t="shared" si="5"/>
-        <v>0.31706498655166299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.4350134483370209E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22.766078300706699</v>
       </c>
@@ -4820,7 +5928,7 @@
         <f t="shared" si="2"/>
         <v>5.1292995218009231E-3</v>
       </c>
-      <c r="T11" s="8"/>
+      <c r="T11" s="10"/>
       <c r="V11" s="5">
         <f t="shared" si="3"/>
         <v>0.59853056854448128</v>
@@ -4829,12 +5937,16 @@
         <f t="shared" si="4"/>
         <v>0.14549999999999999</v>
       </c>
-      <c r="X11" s="2">
+      <c r="X11" s="6">
+        <f t="shared" si="7"/>
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="Y11" s="2">
         <f t="shared" si="5"/>
-        <v>0.45303056854448132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.4694314555187002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>33.571347604918998</v>
       </c>
@@ -4860,7 +5972,7 @@
         <f t="shared" si="2"/>
         <v>3.0775797130805538E-3</v>
       </c>
-      <c r="T12" s="8"/>
+      <c r="T12" s="10"/>
       <c r="V12" s="5">
         <f t="shared" si="3"/>
         <v>0.73221861185213732</v>
@@ -4869,12 +5981,16 @@
         <f t="shared" si="4"/>
         <v>0.126</v>
       </c>
-      <c r="X12" s="2">
+      <c r="X12" s="6">
+        <f t="shared" si="7"/>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="Y12" s="2">
         <f t="shared" si="5"/>
-        <v>0.60621861185213732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5.2186118521373448E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>14.653397122321399</v>
       </c>
@@ -4900,7 +6016,7 @@
         <f t="shared" si="2"/>
         <v>2.9310282981719559E-3</v>
       </c>
-      <c r="T13" s="8"/>
+      <c r="T13" s="10"/>
       <c r="V13" s="5">
         <f t="shared" si="3"/>
         <v>0.83879759761004746</v>
@@ -4909,12 +6025,16 @@
         <f t="shared" si="4"/>
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="X13" s="2">
+      <c r="X13" s="6">
+        <f t="shared" si="7"/>
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="Y13" s="2">
         <f t="shared" si="5"/>
-        <v>0.73929759761004743</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.229759761004745E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.41832745044454</v>
       </c>
@@ -4940,7 +6060,7 @@
         <f t="shared" si="2"/>
         <v>2.0517198087203689E-3</v>
       </c>
-      <c r="T14" s="8"/>
+      <c r="T14" s="10"/>
       <c r="V14" s="5">
         <f t="shared" si="3"/>
         <v>0.9130089832220788</v>
@@ -4949,12 +6069,16 @@
         <f t="shared" si="4"/>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="X14" s="2">
+      <c r="X14" s="6">
+        <f t="shared" si="7"/>
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="Y14" s="2">
         <f t="shared" si="5"/>
-        <v>0.83000898322207883</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.5089832220788209E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>59.945921795353598</v>
       </c>
@@ -4980,7 +6104,7 @@
         <f t="shared" si="2"/>
         <v>1.0258599043601845E-3</v>
       </c>
-      <c r="T15" s="8"/>
+      <c r="T15" s="10"/>
       <c r="V15" s="5">
         <f>_xlfn.NORM.DIST(I38, $O$2, $P$2, TRUE)</f>
         <v>0.95814114361177272</v>
@@ -4989,12 +6113,16 @@
         <f t="shared" si="4"/>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="X15" s="2">
+      <c r="X15" s="6">
+        <f t="shared" si="7"/>
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Y15" s="2">
         <f t="shared" si="5"/>
-        <v>0.91264114361177273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.1411436117727565E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16.157886037999599</v>
       </c>
@@ -5020,7 +6148,7 @@
         <f t="shared" si="2"/>
         <v>7.3275707454298897E-4</v>
       </c>
-      <c r="T16" s="8"/>
+      <c r="T16" s="10"/>
       <c r="V16" s="5">
         <f t="shared" si="3"/>
         <v>0.98211367060238319</v>
@@ -5029,12 +6157,16 @@
         <f t="shared" si="4"/>
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="X16" s="2">
+      <c r="X16" s="6">
+        <f t="shared" si="7"/>
+        <v>0.98049999999999993</v>
+      </c>
+      <c r="Y16" s="2">
         <f t="shared" si="5"/>
-        <v>0.95661367060238323</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1.6136706023832659E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>62.9734985825935</v>
       </c>
@@ -5060,7 +6192,7 @@
         <f t="shared" si="2"/>
         <v>5.8620565963439118E-4</v>
       </c>
-      <c r="T17" s="8"/>
+      <c r="T17" s="10"/>
       <c r="V17" s="5">
         <f t="shared" si="3"/>
         <v>0.99323477577367825</v>
@@ -5069,12 +6201,16 @@
         <f t="shared" si="4"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="X17" s="2">
-        <f>ABS(V17-W17)</f>
-        <v>0.98223477577367824</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="6">
+        <f t="shared" si="7"/>
+        <v>0.99149999999999994</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="5"/>
+        <v>1.7347757736783098E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.9004431623644997</v>
       </c>
@@ -5100,7 +6236,7 @@
         <f t="shared" si="2"/>
         <v>2.9310282981719559E-4</v>
       </c>
-      <c r="T18" s="8"/>
+      <c r="T18" s="10"/>
       <c r="V18" s="5">
         <f t="shared" si="3"/>
         <v>0.9977406776931379</v>
@@ -5109,12 +6245,16 @@
         <f t="shared" si="4"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="X18" s="2">
+      <c r="X18" s="6">
+        <f t="shared" si="7"/>
+        <v>0.99749999999999994</v>
+      </c>
+      <c r="Y18" s="2">
         <f t="shared" si="5"/>
-        <v>0.9917406776931379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2.4067769313795839E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28.674977347638499</v>
       </c>
@@ -5140,7 +6280,7 @@
         <f t="shared" si="2"/>
         <v>5.8620565963439118E-4</v>
       </c>
-      <c r="T19" s="8"/>
+      <c r="T19" s="10"/>
       <c r="V19" s="5">
         <f t="shared" si="3"/>
         <v>0.99933511459669799</v>
@@ -5149,12 +6289,16 @@
         <f t="shared" si="4"/>
         <v>1.5E-3</v>
       </c>
-      <c r="X19" s="2">
+      <c r="X19" s="6">
+        <f t="shared" si="7"/>
+        <v>0.99899999999999989</v>
+      </c>
+      <c r="Y19" s="2">
         <f t="shared" si="5"/>
-        <v>0.99783511459669805</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.3511459669810506E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>25.516968371466302</v>
       </c>
@@ -5180,7 +6324,7 @@
         <f t="shared" si="2"/>
         <v>4.3965424472579338E-4</v>
       </c>
-      <c r="T20" s="8"/>
+      <c r="T20" s="10"/>
       <c r="V20" s="5">
         <f t="shared" si="3"/>
         <v>0.99982785245408312</v>
@@ -5189,12 +6333,16 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="X20" s="2">
+      <c r="X20" s="6">
+        <f t="shared" si="7"/>
+        <v>0.99899999999999989</v>
+      </c>
+      <c r="Y20" s="2">
         <f t="shared" si="5"/>
-        <v>0.99982785245408312</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8.2785245408323327E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.65567007412095</v>
       </c>
@@ -5220,7 +6368,7 @@
         <f t="shared" si="2"/>
         <v>4.3965424472579338E-4</v>
       </c>
-      <c r="T21" s="8"/>
+      <c r="T21" s="10"/>
       <c r="V21" s="5">
         <f>_xlfn.NORM.DIST(I44, $O$2, $P$2, TRUE)</f>
         <v>0.99996083595615326</v>
@@ -5229,12 +6377,16 @@
         <f t="shared" si="4"/>
         <v>1E-3</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="6">
+        <f t="shared" si="7"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="Y21" s="2">
         <f t="shared" si="5"/>
-        <v>0.99896083595615326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3.9164043846628971E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>14.314532225266101</v>
       </c>
@@ -5260,21 +6412,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T22" s="8"/>
+      <c r="T22" s="10"/>
       <c r="V22" s="5">
         <f>_xlfn.NORM.DIST(I45, $O$2, $P$2, TRUE)</f>
         <v>1.3083924686052984E-11</v>
       </c>
-      <c r="W22" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="2">
-        <f t="shared" si="5"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="2">
+        <f t="shared" ref="Y3:Y22" si="8">ABS(V22-W22)</f>
         <v>1.3083924686052984E-11</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>24.0300150339962</v>
       </c>
@@ -5284,36 +6434,36 @@
       <c r="C23">
         <v>37.395144281659398</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T23" s="8"/>
-    </row>
-    <row r="24" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T23" s="10"/>
+    </row>
+    <row r="24" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.011114446463</v>
       </c>
@@ -5358,7 +6508,7 @@
         <f>L24/$H$2</f>
         <v>1.4655141490859779E-4</v>
       </c>
-      <c r="T24" s="8"/>
+      <c r="T24" s="10"/>
       <c r="U24" s="2" t="s">
         <v>22</v>
       </c>
@@ -5369,20 +6519,21 @@
         <v>24</v>
       </c>
       <c r="X24" s="2"/>
-      <c r="Y24" s="7" t="s">
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Z24" s="2" t="s">
+      <c r="AA24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA24" s="2" t="s">
+      <c r="AB24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" s="2" t="s">
+      <c r="AC24" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11.0139510913501</v>
       </c>
@@ -5397,48 +6548,49 @@
         <v>5.3794352337078717</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" ref="J25:J44" si="7">COUNTIFS($B$2:$B$2001,"&gt;="&amp;I25,$B$2:$B$2001,"&lt;="&amp;I26)</f>
+        <f t="shared" ref="J25:J44" si="9">COUNTIFS($B$2:$B$2001,"&gt;="&amp;I25,$B$2:$B$2001,"&lt;="&amp;I26)</f>
         <v>5</v>
       </c>
       <c r="L25" s="3">
-        <f t="shared" ref="L25:L44" si="8">J25/$K$2</f>
+        <f t="shared" ref="L25:L44" si="10">J25/$K$2</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" ref="M25:M44" si="9">L25/$H$2</f>
+        <f t="shared" ref="M25:M44" si="11">L25/$H$2</f>
         <v>7.3275707454298897E-4</v>
       </c>
-      <c r="T25" s="8"/>
+      <c r="T25" s="10"/>
       <c r="U25" s="2"/>
       <c r="V25" s="6">
         <f>_xlfn.NORM.DIST(I25,$O$2,$P$2,TRUE) - _xlfn.NORM.DIST(I24,$O$2,$P$2,TRUE)</f>
         <v>7.5378373480693953E-4</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" ref="W25:W44" si="10">L24</f>
+        <f>L24</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="X25" s="2">
-        <f>((W25-V25)^2) / V25</f>
-        <v>8.5443849579819922E-5</v>
-      </c>
+      <c r="X25" s="6"/>
       <c r="Y25" s="2">
-        <f>X25:X46</f>
-        <v>8.5443849579819922E-5</v>
-      </c>
-      <c r="Z25" s="6">
+        <f>(((W25-V25)^2) / V25)*$K$2</f>
+        <v>0.17088769915963983</v>
+      </c>
+      <c r="Z25" s="2">
+        <f>Y25:Y46</f>
+        <v>0.17088769915963983</v>
+      </c>
+      <c r="AA25" s="6">
         <f>G2-1-2</f>
         <v>17</v>
       </c>
-      <c r="AA25" s="2">
+      <c r="AB25" s="2">
         <v>1</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AC25" s="2">
         <f>_xlfn.CHISQ.TEST(W25:W44,V25:V44)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5.9478942910759702</v>
       </c>
@@ -5449,36 +6601,37 @@
         <v>31.836911458951398</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" ref="I26:I44" si="11">I25+$H$24</f>
+        <f t="shared" ref="I26:I44" si="12">I25+$H$24</f>
         <v>5.9344222327163836</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="L26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.784476883263358E-3</v>
       </c>
-      <c r="T26" s="8"/>
+      <c r="T26" s="10"/>
       <c r="V26" s="6">
-        <f t="shared" ref="V26:V44" si="12">_xlfn.NORM.DIST(I26,$O$2,$P$2,TRUE) - _xlfn.NORM.DIST(I25,$O$2,$P$2,TRUE)</f>
+        <f t="shared" ref="V26:V44" si="13">_xlfn.NORM.DIST(I26,$O$2,$P$2,TRUE) - _xlfn.NORM.DIST(I25,$O$2,$P$2,TRUE)</f>
         <v>2.3265603205705507E-3</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="W25:W44" si="14">L25</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="X26" s="2">
-        <f t="shared" ref="X26:X44" si="13">((W26-V26)^2) / V26</f>
-        <v>1.2929526105393743E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="6"/>
+      <c r="Y26" s="2">
+        <f t="shared" ref="Y26:Y44" si="15">(((W26-V26)^2) / V26)*$K$2</f>
+        <v>2.5859052210787485E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>46.011638246744198</v>
       </c>
@@ -5489,36 +6642,37 @@
         <v>28.865527730190902</v>
       </c>
       <c r="I27" s="3">
+        <f t="shared" si="12"/>
+        <v>6.4894092317248955</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="L27" s="3">
+        <f t="shared" si="10"/>
+        <v>0.02</v>
+      </c>
+      <c r="M27" s="3">
         <f t="shared" si="11"/>
-        <v>6.4894092317248955</v>
-      </c>
-      <c r="J27" s="3">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="L27" s="3">
-        <f t="shared" si="8"/>
-        <v>0.02</v>
-      </c>
-      <c r="M27" s="3">
-        <f t="shared" si="9"/>
         <v>5.8620565963439118E-3</v>
       </c>
-      <c r="T27" s="8"/>
+      <c r="T27" s="10"/>
       <c r="V27" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.2714512375813157E-3</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="X27" s="2">
-        <f t="shared" si="13"/>
-        <v>1.6620598194007827E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="6"/>
+      <c r="Y27" s="2">
+        <f t="shared" si="15"/>
+        <v>3.3241196388015655</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.217143009668539</v>
       </c>
@@ -5529,36 +6683,37 @@
         <v>37.873186901047298</v>
       </c>
       <c r="I28" s="3">
+        <f t="shared" si="12"/>
+        <v>7.0443962307334074</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="9"/>
+        <v>62</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="10"/>
+        <v>3.1E-2</v>
+      </c>
+      <c r="M28" s="3">
         <f t="shared" si="11"/>
-        <v>7.0443962307334074</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" si="8"/>
-        <v>3.1E-2</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="9"/>
         <v>9.0861877243330631E-3</v>
       </c>
-      <c r="T28" s="8"/>
+      <c r="T28" s="10"/>
       <c r="V28" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.476442202529467E-2</v>
       </c>
       <c r="W28" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.02</v>
       </c>
-      <c r="X28" s="2">
-        <f t="shared" si="13"/>
-        <v>1.8565763483499782E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="6"/>
+      <c r="Y28" s="2">
+        <f t="shared" si="15"/>
+        <v>3.7131526966999564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5.5551269271490398</v>
       </c>
@@ -5569,36 +6724,37 @@
         <v>36.379124577048401</v>
       </c>
       <c r="I29" s="3">
+        <f t="shared" si="12"/>
+        <v>7.5993832297419193</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="L29" s="3">
+        <f t="shared" si="10"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="M29" s="3">
         <f t="shared" si="11"/>
-        <v>7.5993832297419193</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" si="7"/>
-        <v>112</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="8"/>
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" si="9"/>
         <v>1.6413758469762951E-2</v>
       </c>
-      <c r="T29" s="8"/>
+      <c r="T29" s="10"/>
       <c r="V29" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0357569340038863E-2</v>
       </c>
       <c r="W29" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3.1E-2</v>
       </c>
-      <c r="X29" s="2">
-        <f t="shared" si="13"/>
-        <v>1.3595197567868718E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="6"/>
+      <c r="Y29" s="2">
+        <f t="shared" si="15"/>
+        <v>2.7190395135737434E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.6533304335206802</v>
       </c>
@@ -5609,36 +6765,37 @@
         <v>34.7309597165507</v>
       </c>
       <c r="I30" s="3">
+        <f t="shared" si="12"/>
+        <v>8.154370228750432</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="9"/>
+        <v>167</v>
+      </c>
+      <c r="L30" s="3">
+        <f t="shared" si="10"/>
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="M30" s="3">
         <f t="shared" si="11"/>
-        <v>8.154370228750432</v>
-      </c>
-      <c r="J30" s="3">
-        <f t="shared" si="7"/>
-        <v>167</v>
-      </c>
-      <c r="L30" s="3">
-        <f t="shared" si="8"/>
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="M30" s="3">
-        <f t="shared" si="9"/>
         <v>2.4474086289735832E-2</v>
       </c>
-      <c r="T30" s="8"/>
+      <c r="T30" s="10"/>
       <c r="V30" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.4516264147707237E-2</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="X30" s="2">
-        <f t="shared" si="13"/>
-        <v>4.0381932140732011E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="6"/>
+      <c r="Y30" s="2">
+        <f t="shared" si="15"/>
+        <v>8.0763864281464023E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8.3137874120455102</v>
       </c>
@@ -5649,36 +6806,37 @@
         <v>34.800592771990601</v>
       </c>
       <c r="I31" s="3">
+        <f t="shared" si="12"/>
+        <v>8.7093572277589448</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="9"/>
+        <v>235</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="10"/>
+        <v>0.11749999999999999</v>
+      </c>
+      <c r="M31" s="3">
         <f t="shared" si="11"/>
-        <v>8.7093572277589448</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" si="7"/>
-        <v>235</v>
-      </c>
-      <c r="L31" s="3">
-        <f t="shared" si="8"/>
-        <v>0.11749999999999999</v>
-      </c>
-      <c r="M31" s="3">
-        <f t="shared" si="9"/>
         <v>3.4439582503520479E-2</v>
       </c>
-      <c r="T31" s="8"/>
+      <c r="T31" s="10"/>
       <c r="V31" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.5506474109613026E-2</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="X31" s="2">
-        <f t="shared" si="13"/>
-        <v>4.7083433090533105E-5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="6"/>
+      <c r="Y31" s="2">
+        <f t="shared" si="15"/>
+        <v>9.4166866181066206E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>67.045728781648506</v>
       </c>
@@ -5689,36 +6847,37 @@
         <v>31.804494909959001</v>
       </c>
       <c r="I32" s="3">
+        <f t="shared" si="12"/>
+        <v>9.2643442267674576</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="9"/>
+        <v>270</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" si="10"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M32" s="3">
         <f t="shared" si="11"/>
-        <v>9.2643442267674576</v>
-      </c>
-      <c r="J32" s="3">
-        <f t="shared" si="7"/>
-        <v>270</v>
-      </c>
-      <c r="L32" s="3">
-        <f t="shared" si="8"/>
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="M32" s="3">
-        <f t="shared" si="9"/>
         <v>3.9568882025321404E-2</v>
       </c>
-      <c r="T32" s="8"/>
+      <c r="T32" s="10"/>
       <c r="V32" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.11713584902467311</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.11749999999999999</v>
       </c>
-      <c r="X32" s="2">
-        <f t="shared" si="13"/>
-        <v>1.1320695921501196E-6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="6"/>
+      <c r="Y32" s="2">
+        <f t="shared" si="15"/>
+        <v>2.2641391843002392E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.84867899321593</v>
       </c>
@@ -5729,36 +6888,37 @@
         <v>33.156528435670701</v>
       </c>
       <c r="I33" s="3">
+        <f t="shared" si="12"/>
+        <v>9.8193312257759704</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="9"/>
+        <v>291</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="10"/>
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="M33" s="3">
         <f t="shared" si="11"/>
-        <v>9.8193312257759704</v>
-      </c>
-      <c r="J33" s="3">
-        <f t="shared" si="7"/>
-        <v>291</v>
-      </c>
-      <c r="L33" s="3">
-        <f t="shared" si="8"/>
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="M33" s="3">
-        <f t="shared" si="9"/>
         <v>4.2646461738401954E-2</v>
       </c>
-      <c r="T33" s="8"/>
+      <c r="T33" s="10"/>
       <c r="V33" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.14015270101737287</v>
       </c>
       <c r="W33" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="X33" s="2">
-        <f t="shared" si="13"/>
-        <v>1.8943857365363401E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="6"/>
+      <c r="Y33" s="2">
+        <f t="shared" si="15"/>
+        <v>0.37887714730726801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.8664743677614601</v>
       </c>
@@ -5769,36 +6929,37 @@
         <v>31.757405785354401</v>
       </c>
       <c r="I34" s="3">
+        <f t="shared" si="12"/>
+        <v>10.374318224784483</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="9"/>
+        <v>252</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="10"/>
+        <v>0.126</v>
+      </c>
+      <c r="M34" s="3">
         <f t="shared" si="11"/>
-        <v>10.374318224784483</v>
-      </c>
-      <c r="J34" s="3">
-        <f t="shared" si="7"/>
-        <v>252</v>
-      </c>
-      <c r="L34" s="3">
-        <f t="shared" si="8"/>
-        <v>0.126</v>
-      </c>
-      <c r="M34" s="3">
-        <f t="shared" si="9"/>
         <v>3.693095655696664E-2</v>
       </c>
-      <c r="T34" s="8"/>
+      <c r="T34" s="10"/>
       <c r="V34" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.14646558199281828</v>
       </c>
       <c r="W34" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.14549999999999999</v>
       </c>
-      <c r="X34" s="2">
-        <f t="shared" si="13"/>
-        <v>6.3656496780292198E-6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="6"/>
+      <c r="Y34" s="2">
+        <f t="shared" si="15"/>
+        <v>1.2731299356058439E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.3319736048503703</v>
       </c>
@@ -5809,36 +6970,37 @@
         <v>28.0630734860605</v>
       </c>
       <c r="I35" s="3">
+        <f t="shared" si="12"/>
+        <v>10.929305223792996</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="9"/>
+        <v>199</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="10"/>
+        <v>9.9500000000000005E-2</v>
+      </c>
+      <c r="M35" s="3">
         <f t="shared" si="11"/>
-        <v>10.929305223792996</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="7"/>
-        <v>199</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="8"/>
-        <v>9.9500000000000005E-2</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" si="9"/>
         <v>2.9163731566810961E-2</v>
       </c>
-      <c r="T35" s="8"/>
+      <c r="T35" s="10"/>
       <c r="V35" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.13368804330765605</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.126</v>
       </c>
-      <c r="X35" s="2">
-        <f t="shared" si="13"/>
-        <v>4.4211889439038578E-4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="6"/>
+      <c r="Y35" s="2">
+        <f t="shared" si="15"/>
+        <v>0.88423778878077153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14.087243483507001</v>
       </c>
@@ -5849,36 +7011,37 @@
         <v>33.7407783186231</v>
       </c>
       <c r="I36" s="3">
+        <f t="shared" si="12"/>
+        <v>11.484292222801509</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="9"/>
+        <v>166</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="10"/>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="M36" s="3">
         <f t="shared" si="11"/>
-        <v>11.484292222801509</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="7"/>
-        <v>166</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="8"/>
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="M36" s="3">
-        <f t="shared" si="9"/>
         <v>2.4327534874827233E-2</v>
       </c>
-      <c r="T36" s="8"/>
+      <c r="T36" s="10"/>
       <c r="V36" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.10657898575791014</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="X36" s="2">
-        <f t="shared" si="13"/>
-        <v>4.7018686661667034E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="6"/>
+      <c r="Y36" s="2">
+        <f t="shared" si="15"/>
+        <v>0.94037373323334073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.6288689188720298</v>
       </c>
@@ -5893,32 +7056,33 @@
         <v>12.039279221810022</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>91</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.3336178756682398E-2</v>
       </c>
-      <c r="T37" s="8"/>
+      <c r="T37" s="10"/>
       <c r="V37" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.4211385612031333E-2</v>
       </c>
       <c r="W37" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="X37" s="2">
-        <f t="shared" si="13"/>
-        <v>1.0408071783514529E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="6"/>
+      <c r="Y37" s="2">
+        <f t="shared" si="15"/>
+        <v>2.081614356702906</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.4343099965675199</v>
       </c>
@@ -5929,7 +7093,7 @@
         <v>31.801704169348199</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>12.594266220818534</v>
       </c>
       <c r="J38" s="3">
@@ -5937,28 +7101,29 @@
         <v>51</v>
       </c>
       <c r="L38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.474122160338487E-3</v>
       </c>
-      <c r="T38" s="8"/>
+      <c r="T38" s="10"/>
       <c r="V38" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5132160389693921E-2</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="X38" s="2">
-        <f t="shared" si="13"/>
-        <v>2.9979947279684195E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="6"/>
+      <c r="Y38" s="2">
+        <f t="shared" si="15"/>
+        <v>5.9959894559368388E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.4680696701481302</v>
       </c>
@@ -5969,36 +7134,37 @@
         <v>34.102457285569898</v>
       </c>
       <c r="I39" s="3">
+        <f t="shared" si="12"/>
+        <v>13.149253219827047</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="M39" s="3">
         <f t="shared" si="11"/>
-        <v>13.149253219827047</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="L39" s="3">
-        <f t="shared" si="8"/>
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="M39" s="3">
-        <f t="shared" si="9"/>
         <v>3.2241311279891513E-3</v>
       </c>
-      <c r="T39" s="8"/>
+      <c r="T39" s="10"/>
       <c r="V39" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.3972526990610477E-2</v>
       </c>
       <c r="W39" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>2.5499999999999998E-2</v>
       </c>
-      <c r="X39" s="2">
-        <f t="shared" si="13"/>
-        <v>9.7326985817028632E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X39" s="6"/>
+      <c r="Y39" s="2">
+        <f t="shared" si="15"/>
+        <v>0.19465397163405726</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9.8259901551741997</v>
       </c>
@@ -6009,36 +7175,37 @@
         <v>40.110263076196397</v>
       </c>
       <c r="I40" s="3">
+        <f t="shared" si="12"/>
+        <v>13.70424021883556</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="M40" s="3">
         <f t="shared" si="11"/>
-        <v>13.70424021883556</v>
-      </c>
-      <c r="J40" s="3">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="L40" s="3">
-        <f t="shared" si="8"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="M40" s="3">
-        <f t="shared" si="9"/>
         <v>1.7586169789031735E-3</v>
       </c>
-      <c r="T40" s="8"/>
+      <c r="T40" s="10"/>
       <c r="V40" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.1121105171295054E-2</v>
       </c>
       <c r="W40" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="X40" s="2">
-        <f t="shared" si="13"/>
-        <v>1.3187954154287119E-6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X40" s="6"/>
+      <c r="Y40" s="2">
+        <f>(((W40-V40)^2) / V40)*$K$2</f>
+        <v>2.6375908308574236E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.0013468090409603</v>
       </c>
@@ -6049,36 +7216,37 @@
         <v>34.001548476547001</v>
       </c>
       <c r="I41" s="3">
+        <f t="shared" si="12"/>
+        <v>14.259227217844073</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5E-3</v>
+      </c>
+      <c r="M41" s="3">
         <f t="shared" si="11"/>
-        <v>14.259227217844073</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="L41" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="M41" s="3">
-        <f t="shared" si="9"/>
         <v>4.3965424472579338E-4</v>
       </c>
-      <c r="T41" s="8"/>
+      <c r="T41" s="10"/>
       <c r="V41" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5059019194596539E-3</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="X41" s="2">
-        <f t="shared" si="13"/>
-        <v>4.9542336122177443E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X41" s="6"/>
+      <c r="Y41" s="2">
+        <f t="shared" si="15"/>
+        <v>0.99084672244354888</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.8829913042912496</v>
       </c>
@@ -6089,36 +7257,37 @@
         <v>35.090711216592098</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.814214216852585</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M42" s="3">
         <f>L42/$H$2</f>
         <v>0</v>
       </c>
-      <c r="T42" s="8"/>
+      <c r="T42" s="10"/>
       <c r="V42" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5944369035600925E-3</v>
       </c>
       <c r="W42" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>1.5E-3</v>
       </c>
-      <c r="X42" s="2">
-        <f t="shared" si="13"/>
-        <v>5.5934033727550905E-6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X42" s="6"/>
+      <c r="Y42" s="2">
+        <f t="shared" si="15"/>
+        <v>1.1186806745510182E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.66272278016305</v>
       </c>
@@ -6129,76 +7298,69 @@
         <v>33.620938740626897</v>
       </c>
       <c r="I43" s="3">
+        <f t="shared" si="12"/>
+        <v>15.369201215861098</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="10"/>
+        <v>1E-3</v>
+      </c>
+      <c r="M43" s="3">
         <f t="shared" si="11"/>
-        <v>15.369201215861098</v>
-      </c>
-      <c r="J43" s="3">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="L43" s="3">
-        <f t="shared" si="8"/>
-        <v>1E-3</v>
-      </c>
-      <c r="M43" s="3">
+        <v>2.9310282981719559E-4</v>
+      </c>
+      <c r="T43" s="10"/>
+      <c r="V43" s="6">
+        <f t="shared" si="13"/>
+        <v>4.9273785738512821E-4</v>
+      </c>
+      <c r="W43" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="2">
+        <f t="shared" si="15"/>
+        <v>0.98547571477025642</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1.8513132405013899</v>
+      </c>
+      <c r="B44">
+        <v>9.4309344848617993</v>
+      </c>
+      <c r="C44">
+        <v>35.182709037645502</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="12"/>
+        <v>15.924188214869611</v>
+      </c>
+      <c r="J44" s="3">
         <f t="shared" si="9"/>
-        <v>2.9310282981719559E-4</v>
-      </c>
-      <c r="T43" s="8"/>
-      <c r="V43" s="6">
-        <f t="shared" si="12"/>
-        <v>4.9273785738512821E-4</v>
-      </c>
-      <c r="W43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X43" s="2">
-        <f t="shared" si="13"/>
-        <v>4.9273785738512821E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1.8513132405013899</v>
-      </c>
-      <c r="B44">
-        <v>9.4309344848617993</v>
-      </c>
-      <c r="C44">
-        <v>35.182709037645502</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="M44" s="3">
         <f t="shared" si="11"/>
-        <v>15.924188214869611</v>
-      </c>
-      <c r="J44" s="3">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L44" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T44" s="8"/>
-      <c r="V44" s="6">
-        <f t="shared" si="12"/>
-        <v>1.3298350207013865E-4</v>
-      </c>
-      <c r="W44" s="6">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
-      </c>
-      <c r="X44" s="2">
-        <f t="shared" si="13"/>
-        <v>5.6527132763136865E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T44" s="10"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="45" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.08401432921913</v>
       </c>
@@ -6210,9 +7372,10 @@
       </c>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="X45" s="2"/>
-    </row>
-    <row r="46" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X45" s="6"/>
+      <c r="Y45" s="2"/>
+    </row>
+    <row r="46" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.6040541679660798</v>
       </c>
@@ -6224,9 +7387,10 @@
       </c>
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
-      <c r="X46" s="2"/>
-    </row>
-    <row r="47" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X46" s="6"/>
+      <c r="Y46" s="2"/>
+    </row>
+    <row r="47" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.6959708762820398</v>
       </c>
@@ -6238,7 +7402,7 @@
       </c>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7.2209268030576901</v>
       </c>
@@ -6252,15 +7416,16 @@
       <c r="W48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X48" s="2" t="s">
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y48" s="2" t="s">
+      <c r="Z48" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19.4068406694003</v>
       </c>
@@ -6274,19 +7439,20 @@
       <c r="W49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X49" s="2">
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2">
         <v>5</v>
       </c>
-      <c r="Y49" s="2">
+      <c r="Z49" s="2">
         <f>(SUMPRODUCT(B2:B1996, B7:B2001) / 1995) - (SUM(B2:B1996)*SUM(B7:B2001)) / 1995^2</f>
         <v>-5.3024073998244603E-3</v>
       </c>
-      <c r="Z49" s="2">
+      <c r="AA49" s="2">
         <f>(1-0.9)*SQRT(1/2000)</f>
         <v>2.236067977499789E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3.7112084897451201</v>
       </c>
@@ -6299,16 +7465,17 @@
       <c r="W50" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X50" s="2">
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2">
         <v>7</v>
       </c>
-      <c r="Y50" s="2">
+      <c r="Z50" s="2">
         <f>(SUMPRODUCT(B5:B1997, B12:B2004) / 1993) - (SUM(B5:B1997)*SUM(B12:B2004)) / 1993^2</f>
         <v>3.5639140325770313E-2</v>
       </c>
-      <c r="Z50" s="2"/>
-    </row>
-    <row r="51" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7.3951951288867699</v>
       </c>
@@ -6321,16 +7488,17 @@
       <c r="W51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="X51" s="2">
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2">
         <v>2</v>
       </c>
-      <c r="Y51" s="2">
+      <c r="Z51" s="2">
         <f>(SUMPRODUCT(B5:B2002, B7:B2004) / 1999) - (SUM(B5:B2002)*SUM(B7:B2004)) / 1999^2</f>
         <v>8.2331661219981811E-2</v>
       </c>
-      <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.12437401137201</v>
       </c>
@@ -6341,7 +7509,7 @@
         <v>34.705284955864002</v>
       </c>
     </row>
-    <row r="53" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.5321249822732899</v>
       </c>
@@ -6352,7 +7520,7 @@
         <v>31.776215531068601</v>
       </c>
     </row>
-    <row r="54" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.7052996891738601</v>
       </c>
@@ -6363,7 +7531,7 @@
         <v>32.4859803908342</v>
       </c>
     </row>
-    <row r="55" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.3147754260833704</v>
       </c>
@@ -6374,7 +7542,7 @@
         <v>35.537858764101401</v>
       </c>
     </row>
-    <row r="56" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2.4031098725976299</v>
       </c>
@@ -6385,7 +7553,7 @@
         <v>39.465653859191903</v>
       </c>
     </row>
-    <row r="57" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11.971829694873099</v>
       </c>
@@ -6396,7 +7564,7 @@
         <v>36.846850868864401</v>
       </c>
     </row>
-    <row r="58" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6.7037296072350303</v>
       </c>
@@ -6407,7 +7575,7 @@
         <v>36.360882867796803</v>
       </c>
     </row>
-    <row r="59" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.61316649483746599</v>
       </c>
@@ -6418,7 +7586,7 @@
         <v>35.727881276991397</v>
       </c>
     </row>
-    <row r="60" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.2974468565709301</v>
       </c>
@@ -6429,7 +7597,7 @@
         <v>34.067995355332997</v>
       </c>
     </row>
-    <row r="61" spans="1:26" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3.7234459648354798</v>
       </c>
@@ -6440,7 +7608,7 @@
         <v>30.036275844202599</v>
       </c>
     </row>
-    <row r="62" spans="1:26" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10.1527515869138</v>
       </c>
@@ -6451,7 +7619,7 @@
         <v>37.2235156824744</v>
       </c>
     </row>
-    <row r="63" spans="1:26" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12.295142992146999</v>
       </c>
@@ -6462,7 +7630,7 @@
         <v>33.468262473202103</v>
       </c>
     </row>
-    <row r="64" spans="1:26" s="3" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="3" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>36.8863184935744</v>
       </c>

--- a/Моделирование систем_/Отчеты/MS2/GeneratorTest.xlsx
+++ b/Моделирование систем_/Отчеты/MS2/GeneratorTest.xlsx
@@ -2750,6 +2750,418 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GeneratorTest!$V$25:$V$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>7.5378373480693953E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3265603205705507E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2714512375813157E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.476442202529467E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0357569340038863E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4516264147707237E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5506474109613026E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11713584902467311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14015270101737287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14646558199281828</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13368804330765605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10657898575791014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4211385612031333E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5132160389693921E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3972526990610477E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1121105171295054E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.5059019194596539E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5944369035600925E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.9273785738512821E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>GeneratorTest!$W$25:$W$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.5499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="250964904"/>
+        <c:axId val="250965688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="250964904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250965688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="250965688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="250964904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2871,6 +3283,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4948,6 +5400,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5065,6 +6033,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>138792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>24492</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5336,10 +6334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2001"/>
+  <dimension ref="A1:AD2001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB36" sqref="AB36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5566,7 +6564,7 @@
         <v>3.360255649381901E-3</v>
       </c>
       <c r="W3" s="6">
-        <f t="shared" ref="W3:W21" si="4">L25</f>
+        <f>L25</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="X3" s="6">
@@ -5574,7 +6572,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="Y3" s="2">
-        <f t="shared" ref="Y3:Y21" si="5">ABS(V3-X3)</f>
+        <f t="shared" ref="Y3:Y21" si="4">ABS(V3-X3)</f>
         <v>3.6025564938190098E-4</v>
       </c>
     </row>
@@ -5597,7 +6595,7 @@
         <v>277</v>
       </c>
       <c r="L4" s="3">
-        <f t="shared" ref="L4:L22" si="6">J4/$K$2</f>
+        <f t="shared" ref="L4:L22" si="5">J4/$K$2</f>
         <v>0.13850000000000001</v>
       </c>
       <c r="M4" s="3">
@@ -5626,7 +6624,7 @@
         <v>9.6317068869632167E-3</v>
       </c>
       <c r="W4" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W3:W21" si="6">L26</f>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="X4" s="6">
@@ -5634,7 +6632,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="Y4" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.868293113036784E-3</v>
       </c>
     </row>
@@ -5657,7 +6655,7 @@
         <v>230</v>
       </c>
       <c r="L5" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.115</v>
       </c>
       <c r="M5" s="3">
@@ -5670,7 +6668,7 @@
         <v>2.4396128912257887E-2</v>
       </c>
       <c r="W5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.02</v>
       </c>
       <c r="X5" s="6">
@@ -5678,7 +6676,7 @@
         <v>3.2500000000000001E-2</v>
       </c>
       <c r="Y5" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.1038710877421143E-3</v>
       </c>
     </row>
@@ -5701,7 +6699,7 @@
         <v>147</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="M6" s="3">
@@ -5714,7 +6712,7 @@
         <v>5.4753698252296749E-2</v>
       </c>
       <c r="W6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1E-2</v>
       </c>
       <c r="X6" s="6">
@@ -5722,7 +6720,7 @@
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.7463017477032515E-3</v>
       </c>
     </row>
@@ -5745,7 +6743,7 @@
         <v>94</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.7E-2</v>
       </c>
       <c r="M7" s="3">
@@ -5758,7 +6756,7 @@
         <v>0.10926996240000399</v>
       </c>
       <c r="W7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="X7" s="6">
@@ -5766,7 +6764,7 @@
         <v>0.1195</v>
       </c>
       <c r="Y7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.0230037599996009E-2</v>
       </c>
     </row>
@@ -5789,7 +6787,7 @@
         <v>59</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.9499999999999998E-2</v>
       </c>
       <c r="M8" s="3">
@@ -5802,7 +6800,7 @@
         <v>0.19477643650961701</v>
       </c>
       <c r="W8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3500000000000005E-2</v>
       </c>
       <c r="X8" s="6">
@@ -5810,7 +6808,7 @@
         <v>0.20300000000000001</v>
       </c>
       <c r="Y8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.2235634903830013E-3</v>
       </c>
     </row>
@@ -5833,7 +6831,7 @@
         <v>51</v>
       </c>
       <c r="L9" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="M9" s="3">
@@ -5846,7 +6844,7 @@
         <v>0.31191228553429012</v>
       </c>
       <c r="W9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.11749999999999999</v>
       </c>
       <c r="X9" s="6">
@@ -5854,7 +6852,7 @@
         <v>0.32050000000000001</v>
       </c>
       <c r="Y9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.5877144657098836E-3</v>
       </c>
     </row>
@@ -5877,7 +6875,7 @@
         <v>42</v>
       </c>
       <c r="L10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="M10" s="3">
@@ -5886,11 +6884,11 @@
       </c>
       <c r="T10" s="10"/>
       <c r="V10" s="5">
-        <f t="shared" si="3"/>
+        <f>_xlfn.NORM.DIST(I33, $O$2, $P$2, TRUE)</f>
         <v>0.452064986551663</v>
       </c>
       <c r="W10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="X10" s="6">
@@ -5898,7 +6896,7 @@
         <v>0.45550000000000002</v>
       </c>
       <c r="Y10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.4350134483370209E-3</v>
       </c>
     </row>
@@ -5921,7 +6919,7 @@
         <v>35</v>
       </c>
       <c r="L11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="M11" s="3">
@@ -5934,7 +6932,7 @@
         <v>0.59853056854448128</v>
       </c>
       <c r="W11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.14549999999999999</v>
       </c>
       <c r="X11" s="6">
@@ -5942,7 +6940,7 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="Y11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.4694314555187002E-3</v>
       </c>
     </row>
@@ -5965,7 +6963,7 @@
         <v>21</v>
       </c>
       <c r="L12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.0500000000000001E-2</v>
       </c>
       <c r="M12" s="3">
@@ -5978,7 +6976,7 @@
         <v>0.73221861185213732</v>
       </c>
       <c r="W12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.126</v>
       </c>
       <c r="X12" s="6">
@@ -5986,7 +6984,7 @@
         <v>0.72699999999999998</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.2186118521373448E-3</v>
       </c>
     </row>
@@ -6009,7 +7007,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.01</v>
       </c>
       <c r="M13" s="3">
@@ -6022,7 +7020,7 @@
         <v>0.83879759761004746</v>
       </c>
       <c r="W13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9.9500000000000005E-2</v>
       </c>
       <c r="X13" s="6">
@@ -6030,7 +7028,7 @@
         <v>0.82650000000000001</v>
       </c>
       <c r="Y13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.229759761004745E-2</v>
       </c>
     </row>
@@ -6053,7 +7051,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M14" s="3">
@@ -6066,7 +7064,7 @@
         <v>0.9130089832220788</v>
       </c>
       <c r="W14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="X14" s="6">
@@ -6074,7 +7072,7 @@
         <v>0.90949999999999998</v>
       </c>
       <c r="Y14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.5089832220788209E-3</v>
       </c>
     </row>
@@ -6097,7 +7095,7 @@
         <v>7</v>
       </c>
       <c r="L15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="M15" s="3">
@@ -6110,7 +7108,7 @@
         <v>0.95814114361177272</v>
       </c>
       <c r="W15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X15" s="6">
@@ -6118,7 +7116,7 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="Y15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.1411436117727565E-3</v>
       </c>
     </row>
@@ -6141,7 +7139,7 @@
         <v>5</v>
       </c>
       <c r="L16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M16" s="3">
@@ -6154,7 +7152,7 @@
         <v>0.98211367060238319</v>
       </c>
       <c r="W16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="X16" s="6">
@@ -6162,7 +7160,7 @@
         <v>0.98049999999999993</v>
       </c>
       <c r="Y16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.6136706023832659E-3</v>
       </c>
     </row>
@@ -6185,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2E-3</v>
       </c>
       <c r="M17" s="3">
@@ -6198,7 +7196,7 @@
         <v>0.99323477577367825</v>
       </c>
       <c r="W17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="X17" s="6">
@@ -6206,7 +7204,7 @@
         <v>0.99149999999999994</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7347757736783098E-3</v>
       </c>
     </row>
@@ -6229,7 +7227,7 @@
         <v>2</v>
       </c>
       <c r="L18" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1E-3</v>
       </c>
       <c r="M18" s="3">
@@ -6242,7 +7240,7 @@
         <v>0.9977406776931379</v>
       </c>
       <c r="W18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="X18" s="6">
@@ -6250,7 +7248,7 @@
         <v>0.99749999999999994</v>
       </c>
       <c r="Y18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.4067769313795839E-4</v>
       </c>
     </row>
@@ -6273,7 +7271,7 @@
         <v>4</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2E-3</v>
       </c>
       <c r="M19" s="3">
@@ -6286,7 +7284,7 @@
         <v>0.99933511459669799</v>
       </c>
       <c r="W19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5E-3</v>
       </c>
       <c r="X19" s="6">
@@ -6294,7 +7292,7 @@
         <v>0.99899999999999989</v>
       </c>
       <c r="Y19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.3511459669810506E-4</v>
       </c>
     </row>
@@ -6317,7 +7315,7 @@
         <v>3</v>
       </c>
       <c r="L20" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5E-3</v>
       </c>
       <c r="M20" s="3">
@@ -6330,7 +7328,7 @@
         <v>0.99982785245408312</v>
       </c>
       <c r="W20" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X20" s="6">
@@ -6338,7 +7336,7 @@
         <v>0.99899999999999989</v>
       </c>
       <c r="Y20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.2785245408323327E-4</v>
       </c>
     </row>
@@ -6361,7 +7359,7 @@
         <v>3</v>
       </c>
       <c r="L21" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5E-3</v>
       </c>
       <c r="M21" s="3">
@@ -6374,7 +7372,7 @@
         <v>0.99996083595615326</v>
       </c>
       <c r="W21" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
       <c r="X21" s="6">
@@ -6382,7 +7380,7 @@
         <v>0.99999999999999989</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.9164043846628971E-5</v>
       </c>
     </row>
@@ -6405,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M22" s="3">
@@ -6618,16 +7616,16 @@
       </c>
       <c r="T26" s="10"/>
       <c r="V26" s="6">
-        <f t="shared" ref="V26:V44" si="13">_xlfn.NORM.DIST(I26,$O$2,$P$2,TRUE) - _xlfn.NORM.DIST(I25,$O$2,$P$2,TRUE)</f>
+        <f>_xlfn.NORM.DIST(I26,$O$2,$P$2,TRUE) - _xlfn.NORM.DIST(I25,$O$2,$P$2,TRUE)</f>
         <v>2.3265603205705507E-3</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" ref="W25:W44" si="14">L25</f>
+        <f t="shared" ref="W25:W44" si="13">L25</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="X26" s="6"/>
       <c r="Y26" s="2">
-        <f t="shared" ref="Y26:Y44" si="15">(((W26-V26)^2) / V26)*$K$2</f>
+        <f t="shared" ref="Y26:Y44" si="14">(((W26-V26)^2) / V26)*$K$2</f>
         <v>2.5859052210787485E-2</v>
       </c>
     </row>
@@ -6659,16 +7657,16 @@
       </c>
       <c r="T27" s="10"/>
       <c r="V27" s="6">
+        <f>_xlfn.NORM.DIST(I27,$O$2,$P$2,TRUE) - _xlfn.NORM.DIST(I26,$O$2,$P$2,TRUE)</f>
+        <v>6.2714512375813157E-3</v>
+      </c>
+      <c r="W27" s="6">
         <f t="shared" si="13"/>
-        <v>6.2714512375813157E-3</v>
-      </c>
-      <c r="W27" s="6">
-        <f t="shared" si="14"/>
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="X27" s="6"/>
       <c r="Y27" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.3241196388015655</v>
       </c>
     </row>
@@ -6700,16 +7698,16 @@
       </c>
       <c r="T28" s="10"/>
       <c r="V28" s="6">
+        <f t="shared" ref="V26:V44" si="15">_xlfn.NORM.DIST(I28,$O$2,$P$2,TRUE) - _xlfn.NORM.DIST(I27,$O$2,$P$2,TRUE)</f>
+        <v>1.476442202529467E-2</v>
+      </c>
+      <c r="W28" s="6">
         <f t="shared" si="13"/>
-        <v>1.476442202529467E-2</v>
-      </c>
-      <c r="W28" s="6">
-        <f t="shared" si="14"/>
         <v>0.02</v>
       </c>
       <c r="X28" s="6"/>
       <c r="Y28" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>3.7131526966999564</v>
       </c>
     </row>
@@ -6741,16 +7739,16 @@
       </c>
       <c r="T29" s="10"/>
       <c r="V29" s="6">
+        <f t="shared" si="15"/>
+        <v>3.0357569340038863E-2</v>
+      </c>
+      <c r="W29" s="6">
         <f t="shared" si="13"/>
-        <v>3.0357569340038863E-2</v>
-      </c>
-      <c r="W29" s="6">
-        <f t="shared" si="14"/>
         <v>3.1E-2</v>
       </c>
       <c r="X29" s="6"/>
       <c r="Y29" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.7190395135737434E-2</v>
       </c>
     </row>
@@ -6782,16 +7780,16 @@
       </c>
       <c r="T30" s="10"/>
       <c r="V30" s="6">
+        <f t="shared" si="15"/>
+        <v>5.4516264147707237E-2</v>
+      </c>
+      <c r="W30" s="6">
         <f t="shared" si="13"/>
-        <v>5.4516264147707237E-2</v>
-      </c>
-      <c r="W30" s="6">
-        <f t="shared" si="14"/>
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="X30" s="6"/>
       <c r="Y30" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>8.0763864281464023E-2</v>
       </c>
     </row>
@@ -6823,16 +7821,16 @@
       </c>
       <c r="T31" s="10"/>
       <c r="V31" s="6">
+        <f t="shared" si="15"/>
+        <v>8.5506474109613026E-2</v>
+      </c>
+      <c r="W31" s="6">
         <f t="shared" si="13"/>
-        <v>8.5506474109613026E-2</v>
-      </c>
-      <c r="W31" s="6">
-        <f t="shared" si="14"/>
         <v>8.3500000000000005E-2</v>
       </c>
       <c r="X31" s="6"/>
       <c r="Y31" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>9.4166866181066206E-2</v>
       </c>
     </row>
@@ -6864,20 +7862,20 @@
       </c>
       <c r="T32" s="10"/>
       <c r="V32" s="6">
+        <f t="shared" si="15"/>
+        <v>0.11713584902467311</v>
+      </c>
+      <c r="W32" s="6">
         <f t="shared" si="13"/>
-        <v>0.11713584902467311</v>
-      </c>
-      <c r="W32" s="6">
-        <f t="shared" si="14"/>
         <v>0.11749999999999999</v>
       </c>
       <c r="X32" s="6"/>
       <c r="Y32" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.2641391843002392E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.84867899321593</v>
       </c>
@@ -6905,20 +7903,20 @@
       </c>
       <c r="T33" s="10"/>
       <c r="V33" s="6">
+        <f t="shared" si="15"/>
+        <v>0.14015270101737287</v>
+      </c>
+      <c r="W33" s="6">
         <f t="shared" si="13"/>
-        <v>0.14015270101737287</v>
-      </c>
-      <c r="W33" s="6">
-        <f t="shared" si="14"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="X33" s="6"/>
       <c r="Y33" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.37887714730726801</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.8664743677614601</v>
       </c>
@@ -6946,20 +7944,20 @@
       </c>
       <c r="T34" s="10"/>
       <c r="V34" s="6">
+        <f t="shared" si="15"/>
+        <v>0.14646558199281828</v>
+      </c>
+      <c r="W34" s="6">
         <f t="shared" si="13"/>
-        <v>0.14646558199281828</v>
-      </c>
-      <c r="W34" s="6">
-        <f t="shared" si="14"/>
         <v>0.14549999999999999</v>
       </c>
       <c r="X34" s="6"/>
       <c r="Y34" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.2731299356058439E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.3319736048503703</v>
       </c>
@@ -6987,20 +7985,20 @@
       </c>
       <c r="T35" s="10"/>
       <c r="V35" s="6">
+        <f t="shared" si="15"/>
+        <v>0.13368804330765605</v>
+      </c>
+      <c r="W35" s="6">
         <f t="shared" si="13"/>
-        <v>0.13368804330765605</v>
-      </c>
-      <c r="W35" s="6">
-        <f t="shared" si="14"/>
         <v>0.126</v>
       </c>
       <c r="X35" s="6"/>
       <c r="Y35" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.88423778878077153</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>14.087243483507001</v>
       </c>
@@ -7028,20 +8026,20 @@
       </c>
       <c r="T36" s="10"/>
       <c r="V36" s="6">
+        <f t="shared" si="15"/>
+        <v>0.10657898575791014</v>
+      </c>
+      <c r="W36" s="6">
         <f t="shared" si="13"/>
-        <v>0.10657898575791014</v>
-      </c>
-      <c r="W36" s="6">
-        <f t="shared" si="14"/>
         <v>9.9500000000000005E-2</v>
       </c>
       <c r="X36" s="6"/>
       <c r="Y36" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.94037373323334073</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.6288689188720298</v>
       </c>
@@ -7069,20 +8067,20 @@
       </c>
       <c r="T37" s="10"/>
       <c r="V37" s="6">
+        <f t="shared" si="15"/>
+        <v>7.4211385612031333E-2</v>
+      </c>
+      <c r="W37" s="6">
         <f t="shared" si="13"/>
-        <v>7.4211385612031333E-2</v>
-      </c>
-      <c r="W37" s="6">
-        <f t="shared" si="14"/>
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="X37" s="6"/>
       <c r="Y37" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2.081614356702906</v>
       </c>
     </row>
-    <row r="38" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.4343099965675199</v>
       </c>
@@ -7110,20 +8108,20 @@
       </c>
       <c r="T38" s="10"/>
       <c r="V38" s="6">
+        <f t="shared" si="15"/>
+        <v>4.5132160389693921E-2</v>
+      </c>
+      <c r="W38" s="6">
         <f t="shared" si="13"/>
-        <v>4.5132160389693921E-2</v>
-      </c>
-      <c r="W38" s="6">
-        <f t="shared" si="14"/>
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="X38" s="6"/>
       <c r="Y38" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.9959894559368388E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.4680696701481302</v>
       </c>
@@ -7151,20 +8149,20 @@
       </c>
       <c r="T39" s="10"/>
       <c r="V39" s="6">
+        <f t="shared" si="15"/>
+        <v>2.3972526990610477E-2</v>
+      </c>
+      <c r="W39" s="6">
         <f t="shared" si="13"/>
-        <v>2.3972526990610477E-2</v>
-      </c>
-      <c r="W39" s="6">
-        <f t="shared" si="14"/>
         <v>2.5499999999999998E-2</v>
       </c>
       <c r="X39" s="6"/>
       <c r="Y39" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.19465397163405726</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9.8259901551741997</v>
       </c>
@@ -7192,11 +8190,11 @@
       </c>
       <c r="T40" s="10"/>
       <c r="V40" s="6">
+        <f t="shared" si="15"/>
+        <v>1.1121105171295054E-2</v>
+      </c>
+      <c r="W40" s="6">
         <f t="shared" si="13"/>
-        <v>1.1121105171295054E-2</v>
-      </c>
-      <c r="W40" s="6">
-        <f t="shared" si="14"/>
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="X40" s="6"/>
@@ -7205,7 +8203,7 @@
         <v>2.6375908308574236E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.0013468090409603</v>
       </c>
@@ -7233,20 +8231,20 @@
       </c>
       <c r="T41" s="10"/>
       <c r="V41" s="6">
+        <f t="shared" si="15"/>
+        <v>4.5059019194596539E-3</v>
+      </c>
+      <c r="W41" s="6">
         <f t="shared" si="13"/>
-        <v>4.5059019194596539E-3</v>
-      </c>
-      <c r="W41" s="6">
-        <f t="shared" si="14"/>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="X41" s="6"/>
       <c r="Y41" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.99084672244354888</v>
       </c>
     </row>
-    <row r="42" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.8829913042912496</v>
       </c>
@@ -7274,20 +8272,20 @@
       </c>
       <c r="T42" s="10"/>
       <c r="V42" s="6">
+        <f t="shared" si="15"/>
+        <v>1.5944369035600925E-3</v>
+      </c>
+      <c r="W42" s="6">
         <f t="shared" si="13"/>
-        <v>1.5944369035600925E-3</v>
-      </c>
-      <c r="W42" s="6">
-        <f t="shared" si="14"/>
         <v>1.5E-3</v>
       </c>
       <c r="X42" s="6"/>
       <c r="Y42" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.1186806745510182E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1.66272278016305</v>
       </c>
@@ -7315,20 +8313,20 @@
       </c>
       <c r="T43" s="10"/>
       <c r="V43" s="6">
+        <f t="shared" si="15"/>
+        <v>4.9273785738512821E-4</v>
+      </c>
+      <c r="W43" s="6">
         <f t="shared" si="13"/>
-        <v>4.9273785738512821E-4</v>
-      </c>
-      <c r="W43" s="6">
-        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X43" s="6"/>
       <c r="Y43" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0.98547571477025642</v>
       </c>
     </row>
-    <row r="44" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1.8513132405013899</v>
       </c>
@@ -7360,7 +8358,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="2"/>
     </row>
-    <row r="45" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.08401432921913</v>
       </c>
@@ -7375,7 +8373,7 @@
       <c r="X45" s="6"/>
       <c r="Y45" s="2"/>
     </row>
-    <row r="46" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.6040541679660798</v>
       </c>
@@ -7390,7 +8388,7 @@
       <c r="X46" s="6"/>
       <c r="Y46" s="2"/>
     </row>
-    <row r="47" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.6959708762820398</v>
       </c>
@@ -7402,7 +8400,7 @@
       </c>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>7.2209268030576901</v>
       </c>
@@ -7412,20 +8410,8 @@
       <c r="C48">
         <v>28.9365163018008</v>
       </c>
-      <c r="V48" s="6"/>
-      <c r="W48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA48" s="2"/>
-    </row>
-    <row r="49" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19.4068406694003</v>
       </c>
@@ -7435,24 +8421,8 @@
       <c r="C49">
         <v>32.115416632417698</v>
       </c>
-      <c r="V49" s="6"/>
-      <c r="W49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="2">
-        <f>(SUMPRODUCT(B2:B1996, B7:B2001) / 1995) - (SUM(B2:B1996)*SUM(B7:B2001)) / 1995^2</f>
-        <v>-5.3024073998244603E-3</v>
-      </c>
-      <c r="AA49" s="2">
-        <f>(1-0.9)*SQRT(1/2000)</f>
-        <v>2.236067977499789E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3.7112084897451201</v>
       </c>
@@ -7462,20 +8432,8 @@
       <c r="C50">
         <v>37.8179042478219</v>
       </c>
-      <c r="W50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2">
-        <v>7</v>
-      </c>
-      <c r="Z50" s="2">
-        <f>(SUMPRODUCT(B5:B1997, B12:B2004) / 1993) - (SUM(B5:B1997)*SUM(B12:B2004)) / 1993^2</f>
-        <v>3.5639140325770313E-2</v>
-      </c>
-      <c r="AA50" s="2"/>
-    </row>
-    <row r="51" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>7.3951951288867699</v>
       </c>
@@ -7485,20 +8443,8 @@
       <c r="C51">
         <v>31.617762716367299</v>
       </c>
-      <c r="W51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z51" s="2">
-        <f>(SUMPRODUCT(B5:B2002, B7:B2004) / 1999) - (SUM(B5:B2002)*SUM(B7:B2004)) / 1999^2</f>
-        <v>8.2331661219981811E-2</v>
-      </c>
-      <c r="AA51" s="2"/>
-    </row>
-    <row r="52" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.12437401137201</v>
       </c>
@@ -7509,7 +8455,7 @@
         <v>34.705284955864002</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3.5321249822732899</v>
       </c>
@@ -7520,7 +8466,7 @@
         <v>31.776215531068601</v>
       </c>
     </row>
-    <row r="54" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.7052996891738601</v>
       </c>
@@ -7531,7 +8477,7 @@
         <v>32.4859803908342</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6.3147754260833704</v>
       </c>
@@ -7542,7 +8488,7 @@
         <v>35.537858764101401</v>
       </c>
     </row>
-    <row r="56" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2.4031098725976299</v>
       </c>
@@ -7553,7 +8499,7 @@
         <v>39.465653859191903</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11.971829694873099</v>
       </c>
@@ -7564,7 +8510,7 @@
         <v>36.846850868864401</v>
       </c>
     </row>
-    <row r="58" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6.7037296072350303</v>
       </c>
@@ -7575,7 +8521,7 @@
         <v>36.360882867796803</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.61316649483746599</v>
       </c>
@@ -7586,7 +8532,7 @@
         <v>35.727881276991397</v>
       </c>
     </row>
-    <row r="60" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.2974468565709301</v>
       </c>
@@ -7597,7 +8543,7 @@
         <v>34.067995355332997</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3.7234459648354798</v>
       </c>
@@ -7608,7 +8554,7 @@
         <v>30.036275844202599</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10.1527515869138</v>
       </c>
@@ -7619,7 +8565,7 @@
         <v>37.2235156824744</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12.295142992146999</v>
       </c>
@@ -7630,7 +8576,7 @@
         <v>33.468262473202103</v>
       </c>
     </row>
-    <row r="64" spans="1:27" s="3" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="3" customFormat="1" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>36.8863184935744</v>
       </c>
@@ -7817,7 +8763,7 @@
         <v>32.610169250631699</v>
       </c>
     </row>
-    <row r="81" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2.3826786206464701</v>
       </c>
@@ -7828,7 +8774,7 @@
         <v>28.401991049148599</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>6.4568086410308903</v>
       </c>
@@ -7839,7 +8785,7 @@
         <v>29.9939887075138</v>
       </c>
     </row>
-    <row r="83" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.8042646122668</v>
       </c>
@@ -7850,7 +8796,7 @@
         <v>34.852091150406899</v>
       </c>
     </row>
-    <row r="84" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.2350473260959201</v>
       </c>
@@ -7861,7 +8807,7 @@
         <v>32.924660290768401</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>33.033704673213201</v>
       </c>
@@ -7871,8 +8817,20 @@
       <c r="C85">
         <v>30.681629390332802</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC85" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD85" s="2"/>
+    </row>
+    <row r="86" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6.12867182104101</v>
       </c>
@@ -7882,8 +8840,24 @@
       <c r="C86">
         <v>36.365491938113998</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC86" s="2">
+        <f>(SUMPRODUCT(B2:B1996, B7:B2001) / 1995) - (SUM(B2:B1996)*SUM(B7:B2001)) / 1995^2</f>
+        <v>-5.3024073998244603E-3</v>
+      </c>
+      <c r="AD86" s="2">
+        <f>(1-0.9)*SQRT(1/2000)</f>
+        <v>2.236067977499789E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12.079895837528801</v>
       </c>
@@ -7893,8 +8867,20 @@
       <c r="C87">
         <v>39.128404736010197</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC87" s="2">
+        <f>(SUMPRODUCT(B5:B1997, B12:B2004) / 1993) - (SUM(B5:B1997)*SUM(B12:B2004)) / 1993^2</f>
+        <v>3.5639140325770313E-2</v>
+      </c>
+      <c r="AD87" s="2"/>
+    </row>
+    <row r="88" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>0.95524840937826505</v>
       </c>
@@ -7904,8 +8890,20 @@
       <c r="C88">
         <v>33.008344465392099</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC88" s="2">
+        <f>(SUMPRODUCT(B5:B2002, B7:B2004) / 1999) - (SUM(B5:B2002)*SUM(B7:B2004)) / 1999^2</f>
+        <v>8.2331661219981811E-2</v>
+      </c>
+      <c r="AD88" s="2"/>
+    </row>
+    <row r="89" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>15.1881632820484</v>
       </c>
@@ -7916,7 +8914,7 @@
         <v>35.047263575462999</v>
       </c>
     </row>
-    <row r="90" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1.48442891198202</v>
       </c>
@@ -7927,7 +8925,7 @@
         <v>36.367499107767003</v>
       </c>
     </row>
-    <row r="91" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>0.59313748987285098</v>
       </c>
@@ -7938,7 +8936,7 @@
         <v>34.536296328795899</v>
       </c>
     </row>
-    <row r="92" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>16.920190361538101</v>
       </c>
@@ -7949,7 +8947,7 @@
         <v>29.0530133363213</v>
       </c>
     </row>
-    <row r="93" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.7030422689551099</v>
       </c>
@@ -7960,7 +8958,7 @@
         <v>32.087674535287597</v>
       </c>
     </row>
-    <row r="94" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1.8799104408476299</v>
       </c>
@@ -7971,7 +8969,7 @@
         <v>33.189431447279603</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3.7801504481939601</v>
       </c>
@@ -7982,7 +8980,7 @@
         <v>29.4684845921457</v>
       </c>
     </row>
-    <row r="96" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>20.0830705409671</v>
       </c>
